--- a/TNR_JDD/JDD.MP.LOT.xlsx
+++ b/TNR_JDD/JDD.MP.LOT.xlsx
@@ -12,35 +12,11 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mjHMHn82bOkIuLo5Pa9aIhVLNdVSw=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="Ow7fS6PoD7WaKRfKKiyB6YJ1heqgTdWUq0htDxaBHbU="/>
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="D16">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAxDdjQRo
-Nicolas HUC    (2023-05-16 09:49:17)
-@jean-marc.lafarge-ext@apave.com
-_Attribuée à Jean-Marc LAFARGE_</t>
-      </text>
-    </comment>
-  </commentList>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgkBpe+IwyFdSDsGkWTal9M2zGhdg=="/>
-    </ext>
-  </extLst>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -243,7 +219,53 @@
     <t>Type de regroupement des tâches du lot</t>
   </si>
   <si>
-    <t>Question MOE: Quelles sont les valeurs attendues ?</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> : Ne pas regrouper
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> : Regrouper par Equipement
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> : Regrouper par Emplacement</t>
+    </r>
   </si>
   <si>
     <t>ID_CODUTI</t>
@@ -324,7 +346,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -378,11 +400,6 @@
     </font>
     <font>
       <b/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -539,17 +556,17 @@
     <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="8" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="8" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="9" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="2" fillId="10" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
@@ -3127,8 +3144,7 @@
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/TNR_JDD/JDD.MP.LOT.xlsx
+++ b/TNR_JDD/JDD.MP.LOT.xlsx
@@ -7,20 +7,21 @@
     <sheet state="visible" name="Info" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="001" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="IHMTO" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="MODELE" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="INTERNALVALUE" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="MODELE" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="Ow7fS6PoD7WaKRfKKiyB6YJ1heqgTdWUq0htDxaBHbU="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="M0GN0PSi20fqmRVADM/6yjfUhkSfSmidqMyFdLUintg="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="84">
   <si>
     <t>Date</t>
   </si>
@@ -292,6 +293,12 @@
     <t>SEQUENCE</t>
   </si>
   <si>
+    <t>INTERNALVALUE</t>
+  </si>
+  <si>
+    <t>LOT.NU_TYPGRP</t>
+  </si>
+  <si>
     <t>LOCATOR</t>
   </si>
   <si>
@@ -336,6 +343,24 @@
     </r>
   </si>
   <si>
+    <t>PARA</t>
+  </si>
+  <si>
+    <t>VALEUR INTERNE</t>
+  </si>
+  <si>
+    <t>VALEUR</t>
+  </si>
+  <si>
+    <t>Ne pas regrouper</t>
+  </si>
+  <si>
+    <t>Regrouper par Equipement</t>
+  </si>
+  <si>
+    <t>Regroupe par Emplacement</t>
+  </si>
+  <si>
     <t>Champ</t>
   </si>
 </sst>
@@ -346,7 +371,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -414,6 +439,15 @@
       <b/>
       <sz val="9.0"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -511,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -566,12 +600,30 @@
     <xf borderId="2" fillId="8" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="2" fillId="8" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="2" fillId="9" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="2" fillId="10" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="2" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="11" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -597,6 +649,10 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -3156,10 +3212,10 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="6.0" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1.0" ySplit="7.0" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A7" sqref="A7" pane="bottomLeft"/>
-      <selection activeCell="B7" sqref="B7" pane="bottomRight"/>
+      <selection activeCell="A8" sqref="A8" pane="bottomLeft"/>
+      <selection activeCell="B8" sqref="B8" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
@@ -3167,6 +3223,7 @@
     <col customWidth="1" min="1" max="1" width="31.88"/>
     <col customWidth="1" min="2" max="2" width="20.75"/>
     <col customWidth="1" min="3" max="6" width="12.63"/>
+    <col customWidth="1" min="14" max="14" width="13.38"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -3369,742 +3426,762 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" s="21"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="21" t="s">
+      <c r="C6" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="M6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="21" t="s">
+      <c r="N6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="21" t="s">
+      <c r="O6" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="22" t="s">
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="22" t="s">
+      <c r="O7" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="23"/>
-    </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="23"/>
+      <c r="A8" s="25"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="23"/>
+      <c r="A9" s="25"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="23"/>
+      <c r="A10" s="25"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="23"/>
+      <c r="A11" s="25"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="23"/>
+      <c r="A12" s="25"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="23"/>
+      <c r="A13" s="25"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="23"/>
+      <c r="A14" s="25"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="23"/>
+      <c r="A15" s="25"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="23"/>
+      <c r="A16" s="25"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="23"/>
+      <c r="A17" s="25"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="23"/>
+      <c r="A18" s="25"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="23"/>
+      <c r="A19" s="25"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="23"/>
+      <c r="A20" s="25"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="23"/>
+      <c r="A21" s="25"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="23"/>
+      <c r="A22" s="25"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="23"/>
+      <c r="A23" s="25"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="23"/>
+      <c r="A24" s="25"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="23"/>
+      <c r="A25" s="25"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="23"/>
+      <c r="A26" s="25"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="23"/>
+      <c r="A27" s="25"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="23"/>
+      <c r="A28" s="25"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="23"/>
+      <c r="A29" s="25"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="23"/>
+      <c r="A30" s="25"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="23"/>
+      <c r="A31" s="25"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="23"/>
+      <c r="A32" s="25"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="23"/>
+      <c r="A33" s="25"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="23"/>
+      <c r="A34" s="25"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="23"/>
+      <c r="A35" s="25"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="23"/>
+      <c r="A36" s="25"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="23"/>
+      <c r="A37" s="25"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="23"/>
+      <c r="A38" s="25"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="23"/>
+      <c r="A39" s="25"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="23"/>
+      <c r="A40" s="25"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="23"/>
+      <c r="A41" s="25"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="23"/>
+      <c r="A42" s="25"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="23"/>
+      <c r="A43" s="25"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="23"/>
+      <c r="A44" s="25"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="23"/>
+      <c r="A45" s="25"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="23"/>
+      <c r="A46" s="25"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="23"/>
+      <c r="A47" s="25"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="23"/>
+      <c r="A48" s="25"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="23"/>
+      <c r="A49" s="25"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="23"/>
+      <c r="A50" s="25"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="23"/>
+      <c r="A51" s="25"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="23"/>
+      <c r="A52" s="25"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="23"/>
+      <c r="A53" s="25"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="23"/>
+      <c r="A54" s="25"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="23"/>
+      <c r="A55" s="25"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="23"/>
+      <c r="A56" s="25"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="23"/>
+      <c r="A57" s="25"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="23"/>
+      <c r="A58" s="25"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="23"/>
+      <c r="A59" s="25"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="23"/>
+      <c r="A60" s="25"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="23"/>
+      <c r="A61" s="25"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="23"/>
+      <c r="A62" s="25"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="23"/>
+      <c r="A63" s="25"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="23"/>
+      <c r="A64" s="25"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="23"/>
+      <c r="A65" s="25"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="23"/>
+      <c r="A66" s="25"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="23"/>
+      <c r="A67" s="25"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="23"/>
+      <c r="A68" s="25"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="23"/>
+      <c r="A69" s="25"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="23"/>
+      <c r="A70" s="25"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="23"/>
+      <c r="A71" s="25"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="23"/>
+      <c r="A72" s="25"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="23"/>
+      <c r="A73" s="25"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="23"/>
+      <c r="A74" s="25"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="23"/>
+      <c r="A75" s="25"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="23"/>
+      <c r="A76" s="25"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="23"/>
+      <c r="A77" s="25"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="23"/>
+      <c r="A78" s="25"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="23"/>
+      <c r="A79" s="25"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="23"/>
+      <c r="A80" s="25"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="23"/>
+      <c r="A81" s="25"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="23"/>
+      <c r="A82" s="25"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="23"/>
+      <c r="A83" s="25"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="23"/>
+      <c r="A84" s="25"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="23"/>
+      <c r="A85" s="25"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="23"/>
+      <c r="A86" s="25"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="23"/>
+      <c r="A87" s="25"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="23"/>
+      <c r="A88" s="25"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="23"/>
+      <c r="A89" s="25"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="23"/>
+      <c r="A90" s="25"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="23"/>
+      <c r="A91" s="25"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="23"/>
+      <c r="A92" s="25"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="23"/>
+      <c r="A93" s="25"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="23"/>
+      <c r="A94" s="25"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="23"/>
+      <c r="A95" s="25"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="23"/>
+      <c r="A96" s="25"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="23"/>
+      <c r="A97" s="25"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="23"/>
+      <c r="A98" s="25"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="23"/>
+      <c r="A99" s="25"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="23"/>
+      <c r="A100" s="25"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="23"/>
+      <c r="A101" s="25"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="23"/>
+      <c r="A102" s="25"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="23"/>
+      <c r="A103" s="25"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="23"/>
+      <c r="A104" s="25"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="23"/>
+      <c r="A105" s="25"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="23"/>
+      <c r="A106" s="25"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="23"/>
+      <c r="A107" s="25"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="23"/>
+      <c r="A108" s="25"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="23"/>
+      <c r="A109" s="25"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="23"/>
+      <c r="A110" s="25"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="23"/>
+      <c r="A111" s="25"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="23"/>
+      <c r="A112" s="25"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="23"/>
+      <c r="A113" s="25"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="23"/>
+      <c r="A114" s="25"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="23"/>
+      <c r="A115" s="25"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="23"/>
+      <c r="A116" s="25"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="23"/>
+      <c r="A117" s="25"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="23"/>
+      <c r="A118" s="25"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="23"/>
+      <c r="A119" s="25"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="23"/>
+      <c r="A120" s="25"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="23"/>
+      <c r="A121" s="25"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="23"/>
+      <c r="A122" s="25"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="23"/>
+      <c r="A123" s="25"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="23"/>
+      <c r="A124" s="25"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="23"/>
+      <c r="A125" s="25"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="23"/>
+      <c r="A126" s="25"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="23"/>
+      <c r="A127" s="25"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="23"/>
+      <c r="A128" s="25"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="23"/>
+      <c r="A129" s="25"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="23"/>
+      <c r="A130" s="25"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="23"/>
+      <c r="A131" s="25"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="23"/>
+      <c r="A132" s="25"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="23"/>
+      <c r="A133" s="25"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="23"/>
+      <c r="A134" s="25"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="23"/>
+      <c r="A135" s="25"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="23"/>
+      <c r="A136" s="25"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="23"/>
+      <c r="A137" s="25"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="23"/>
+      <c r="A138" s="25"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="23"/>
+      <c r="A139" s="25"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="23"/>
+      <c r="A140" s="25"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="23"/>
+      <c r="A141" s="25"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="23"/>
+      <c r="A142" s="25"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="23"/>
+      <c r="A143" s="25"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="23"/>
+      <c r="A144" s="25"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="23"/>
+      <c r="A145" s="25"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="23"/>
+      <c r="A146" s="25"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="23"/>
+      <c r="A147" s="25"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="23"/>
+      <c r="A148" s="25"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="23"/>
+      <c r="A149" s="25"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="23"/>
+      <c r="A150" s="25"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="23"/>
+      <c r="A151" s="25"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="23"/>
+      <c r="A152" s="25"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="23"/>
+      <c r="A153" s="25"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="23"/>
+      <c r="A154" s="25"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="23"/>
+      <c r="A155" s="25"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="23"/>
+      <c r="A156" s="25"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="23"/>
+      <c r="A157" s="25"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="23"/>
+      <c r="A158" s="25"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="23"/>
+      <c r="A159" s="25"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="23"/>
+      <c r="A160" s="25"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="23"/>
+      <c r="A161" s="25"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="23"/>
+      <c r="A162" s="25"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="23"/>
+      <c r="A163" s="25"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="23"/>
+      <c r="A164" s="25"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="23"/>
+      <c r="A165" s="25"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="23"/>
+      <c r="A166" s="25"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="23"/>
+      <c r="A167" s="25"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="23"/>
+      <c r="A168" s="25"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="23"/>
+      <c r="A169" s="25"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="23"/>
+      <c r="A170" s="25"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="23"/>
+      <c r="A171" s="25"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="23"/>
+      <c r="A172" s="25"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="23"/>
+      <c r="A173" s="25"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="23"/>
+      <c r="A174" s="25"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="23"/>
+      <c r="A175" s="25"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="23"/>
+      <c r="A176" s="25"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="23"/>
+      <c r="A177" s="25"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="23"/>
+      <c r="A178" s="25"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="23"/>
+      <c r="A179" s="25"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="23"/>
+      <c r="A180" s="25"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="23"/>
+      <c r="A181" s="25"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="23"/>
+      <c r="A182" s="25"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="23"/>
+      <c r="A183" s="25"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="23"/>
+      <c r="A184" s="25"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="23"/>
+      <c r="A185" s="25"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="23"/>
+      <c r="A186" s="25"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="23"/>
+      <c r="A187" s="25"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="23"/>
+      <c r="A188" s="25"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="23"/>
+      <c r="A189" s="25"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="23"/>
+      <c r="A190" s="25"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="23"/>
+      <c r="A191" s="25"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="23"/>
+      <c r="A192" s="25"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="23"/>
+      <c r="A193" s="25"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="23"/>
+      <c r="A194" s="25"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="23"/>
+      <c r="A195" s="25"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="23"/>
+      <c r="A196" s="25"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="23"/>
+      <c r="A197" s="25"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="23"/>
+      <c r="A198" s="25"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="23"/>
+      <c r="A199" s="25"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="23"/>
+      <c r="A200" s="25"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="23"/>
+      <c r="A201" s="25"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="23"/>
+      <c r="A202" s="25"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="23"/>
+      <c r="A203" s="25"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="23"/>
+      <c r="A204" s="25"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="23"/>
+      <c r="A205" s="25"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="23"/>
+      <c r="A206" s="25"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="23"/>
+      <c r="A207" s="25"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="23"/>
+      <c r="A208" s="25"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="23"/>
+      <c r="A209" s="25"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="23"/>
+      <c r="A210" s="25"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="23"/>
+      <c r="A211" s="25"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="23"/>
+      <c r="A212" s="25"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="23"/>
+      <c r="A213" s="25"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="23"/>
+      <c r="A214" s="25"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="23"/>
+      <c r="A215" s="25"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="23"/>
+      <c r="A216" s="25"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="23"/>
+      <c r="A217" s="25"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="23"/>
+      <c r="A218" s="25"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="23"/>
+      <c r="A219" s="25"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="23"/>
-    </row>
-    <row r="221" ht="15.75" customHeight="1"/>
+      <c r="A220" s="25"/>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="A221" s="25"/>
+    </row>
     <row r="222" ht="15.75" customHeight="1"/>
     <row r="223" ht="15.75" customHeight="1"/>
     <row r="224" ht="15.75" customHeight="1"/>
@@ -4884,6 +4961,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -4912,14 +4990,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>74</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1"/>
@@ -5933,6 +6011,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="14.75"/>
+    <col customWidth="1" min="2" max="2" width="23.5"/>
+    <col customWidth="1" min="3" max="3" width="21.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
@@ -5953,7 +6095,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="19"/>
       <c r="B1" s="20" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
@@ -6000,657 +6142,657 @@
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B5" s="21"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="22"/>
+      <c r="A6" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="24"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="23"/>
+      <c r="A7" s="25"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="23"/>
+      <c r="A8" s="25"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="23"/>
+      <c r="A9" s="25"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="23"/>
+      <c r="A10" s="25"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="23"/>
+      <c r="A11" s="25"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="23"/>
+      <c r="A12" s="25"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="23"/>
+      <c r="A13" s="25"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="23"/>
+      <c r="A14" s="25"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="23"/>
+      <c r="A15" s="25"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="23"/>
+      <c r="A16" s="25"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="23"/>
+      <c r="A17" s="25"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="23"/>
+      <c r="A18" s="25"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="23"/>
+      <c r="A19" s="25"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="23"/>
+      <c r="A20" s="25"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="23"/>
+      <c r="A21" s="25"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="23"/>
+      <c r="A22" s="25"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="23"/>
+      <c r="A23" s="25"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="23"/>
+      <c r="A24" s="25"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="23"/>
+      <c r="A25" s="25"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="23"/>
+      <c r="A26" s="25"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="23"/>
+      <c r="A27" s="25"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="23"/>
+      <c r="A28" s="25"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="23"/>
+      <c r="A29" s="25"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="23"/>
+      <c r="A30" s="25"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="23"/>
+      <c r="A31" s="25"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="23"/>
+      <c r="A32" s="25"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="23"/>
+      <c r="A33" s="25"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="23"/>
+      <c r="A34" s="25"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="23"/>
+      <c r="A35" s="25"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="23"/>
+      <c r="A36" s="25"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="23"/>
+      <c r="A37" s="25"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="23"/>
+      <c r="A38" s="25"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="23"/>
+      <c r="A39" s="25"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="23"/>
+      <c r="A40" s="25"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="23"/>
+      <c r="A41" s="25"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="23"/>
+      <c r="A42" s="25"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="23"/>
+      <c r="A43" s="25"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="23"/>
+      <c r="A44" s="25"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="23"/>
+      <c r="A45" s="25"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="23"/>
+      <c r="A46" s="25"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="23"/>
+      <c r="A47" s="25"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="23"/>
+      <c r="A48" s="25"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="23"/>
+      <c r="A49" s="25"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="23"/>
+      <c r="A50" s="25"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="23"/>
+      <c r="A51" s="25"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="23"/>
+      <c r="A52" s="25"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="23"/>
+      <c r="A53" s="25"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="23"/>
+      <c r="A54" s="25"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="23"/>
+      <c r="A55" s="25"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="23"/>
+      <c r="A56" s="25"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="23"/>
+      <c r="A57" s="25"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="23"/>
+      <c r="A58" s="25"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="23"/>
+      <c r="A59" s="25"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="23"/>
+      <c r="A60" s="25"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="23"/>
+      <c r="A61" s="25"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="23"/>
+      <c r="A62" s="25"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="23"/>
+      <c r="A63" s="25"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="23"/>
+      <c r="A64" s="25"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="23"/>
+      <c r="A65" s="25"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="23"/>
+      <c r="A66" s="25"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="23"/>
+      <c r="A67" s="25"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="23"/>
+      <c r="A68" s="25"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="23"/>
+      <c r="A69" s="25"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="23"/>
+      <c r="A70" s="25"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="23"/>
+      <c r="A71" s="25"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="23"/>
+      <c r="A72" s="25"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="23"/>
+      <c r="A73" s="25"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="23"/>
+      <c r="A74" s="25"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="23"/>
+      <c r="A75" s="25"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="23"/>
+      <c r="A76" s="25"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="23"/>
+      <c r="A77" s="25"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="23"/>
+      <c r="A78" s="25"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="23"/>
+      <c r="A79" s="25"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="23"/>
+      <c r="A80" s="25"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="23"/>
+      <c r="A81" s="25"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="23"/>
+      <c r="A82" s="25"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="23"/>
+      <c r="A83" s="25"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="23"/>
+      <c r="A84" s="25"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="23"/>
+      <c r="A85" s="25"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="23"/>
+      <c r="A86" s="25"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="23"/>
+      <c r="A87" s="25"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="23"/>
+      <c r="A88" s="25"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="23"/>
+      <c r="A89" s="25"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="23"/>
+      <c r="A90" s="25"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="23"/>
+      <c r="A91" s="25"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="23"/>
+      <c r="A92" s="25"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="23"/>
+      <c r="A93" s="25"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="23"/>
+      <c r="A94" s="25"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="23"/>
+      <c r="A95" s="25"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="23"/>
+      <c r="A96" s="25"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="23"/>
+      <c r="A97" s="25"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="23"/>
+      <c r="A98" s="25"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="23"/>
+      <c r="A99" s="25"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="23"/>
+      <c r="A100" s="25"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="23"/>
+      <c r="A101" s="25"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="23"/>
+      <c r="A102" s="25"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="23"/>
+      <c r="A103" s="25"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="23"/>
+      <c r="A104" s="25"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="23"/>
+      <c r="A105" s="25"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="23"/>
+      <c r="A106" s="25"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="23"/>
+      <c r="A107" s="25"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="23"/>
+      <c r="A108" s="25"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="23"/>
+      <c r="A109" s="25"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="23"/>
+      <c r="A110" s="25"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="23"/>
+      <c r="A111" s="25"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="23"/>
+      <c r="A112" s="25"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="23"/>
+      <c r="A113" s="25"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="23"/>
+      <c r="A114" s="25"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="23"/>
+      <c r="A115" s="25"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="23"/>
+      <c r="A116" s="25"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="23"/>
+      <c r="A117" s="25"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="23"/>
+      <c r="A118" s="25"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="23"/>
+      <c r="A119" s="25"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="23"/>
+      <c r="A120" s="25"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="23"/>
+      <c r="A121" s="25"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="23"/>
+      <c r="A122" s="25"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="23"/>
+      <c r="A123" s="25"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="23"/>
+      <c r="A124" s="25"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="23"/>
+      <c r="A125" s="25"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="23"/>
+      <c r="A126" s="25"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="23"/>
+      <c r="A127" s="25"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="23"/>
+      <c r="A128" s="25"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="23"/>
+      <c r="A129" s="25"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="23"/>
+      <c r="A130" s="25"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="23"/>
+      <c r="A131" s="25"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="23"/>
+      <c r="A132" s="25"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="23"/>
+      <c r="A133" s="25"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="23"/>
+      <c r="A134" s="25"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="23"/>
+      <c r="A135" s="25"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="23"/>
+      <c r="A136" s="25"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="23"/>
+      <c r="A137" s="25"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="23"/>
+      <c r="A138" s="25"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="23"/>
+      <c r="A139" s="25"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="23"/>
+      <c r="A140" s="25"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="23"/>
+      <c r="A141" s="25"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="23"/>
+      <c r="A142" s="25"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="23"/>
+      <c r="A143" s="25"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="23"/>
+      <c r="A144" s="25"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="23"/>
+      <c r="A145" s="25"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="23"/>
+      <c r="A146" s="25"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="23"/>
+      <c r="A147" s="25"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="23"/>
+      <c r="A148" s="25"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="23"/>
+      <c r="A149" s="25"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="23"/>
+      <c r="A150" s="25"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="23"/>
+      <c r="A151" s="25"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="23"/>
+      <c r="A152" s="25"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="23"/>
+      <c r="A153" s="25"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="23"/>
+      <c r="A154" s="25"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="23"/>
+      <c r="A155" s="25"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="23"/>
+      <c r="A156" s="25"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="23"/>
+      <c r="A157" s="25"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="23"/>
+      <c r="A158" s="25"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="23"/>
+      <c r="A159" s="25"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="23"/>
+      <c r="A160" s="25"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="23"/>
+      <c r="A161" s="25"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="23"/>
+      <c r="A162" s="25"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="23"/>
+      <c r="A163" s="25"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="23"/>
+      <c r="A164" s="25"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="23"/>
+      <c r="A165" s="25"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="23"/>
+      <c r="A166" s="25"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="23"/>
+      <c r="A167" s="25"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="23"/>
+      <c r="A168" s="25"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="23"/>
+      <c r="A169" s="25"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="23"/>
+      <c r="A170" s="25"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="23"/>
+      <c r="A171" s="25"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="23"/>
+      <c r="A172" s="25"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="23"/>
+      <c r="A173" s="25"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="23"/>
+      <c r="A174" s="25"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="23"/>
+      <c r="A175" s="25"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="23"/>
+      <c r="A176" s="25"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="23"/>
+      <c r="A177" s="25"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="23"/>
+      <c r="A178" s="25"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="23"/>
+      <c r="A179" s="25"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="23"/>
+      <c r="A180" s="25"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="23"/>
+      <c r="A181" s="25"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="23"/>
+      <c r="A182" s="25"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="23"/>
+      <c r="A183" s="25"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="23"/>
+      <c r="A184" s="25"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="23"/>
+      <c r="A185" s="25"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="23"/>
+      <c r="A186" s="25"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="23"/>
+      <c r="A187" s="25"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="23"/>
+      <c r="A188" s="25"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="23"/>
+      <c r="A189" s="25"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="23"/>
+      <c r="A190" s="25"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="23"/>
+      <c r="A191" s="25"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="23"/>
+      <c r="A192" s="25"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="23"/>
+      <c r="A193" s="25"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="23"/>
+      <c r="A194" s="25"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="23"/>
+      <c r="A195" s="25"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="23"/>
+      <c r="A196" s="25"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="23"/>
+      <c r="A197" s="25"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="23"/>
+      <c r="A198" s="25"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="23"/>
+      <c r="A199" s="25"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="23"/>
+      <c r="A200" s="25"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="23"/>
+      <c r="A201" s="25"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="23"/>
+      <c r="A202" s="25"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="23"/>
+      <c r="A203" s="25"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="23"/>
+      <c r="A204" s="25"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="23"/>
+      <c r="A205" s="25"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="23"/>
+      <c r="A206" s="25"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="23"/>
+      <c r="A207" s="25"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="23"/>
+      <c r="A208" s="25"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="23"/>
+      <c r="A209" s="25"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="23"/>
+      <c r="A210" s="25"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="23"/>
+      <c r="A211" s="25"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="23"/>
+      <c r="A212" s="25"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="23"/>
+      <c r="A213" s="25"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="23"/>
+      <c r="A214" s="25"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="23"/>
+      <c r="A215" s="25"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="23"/>
+      <c r="A216" s="25"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="23"/>
+      <c r="A217" s="25"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="23"/>
+      <c r="A218" s="25"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="23"/>
+      <c r="A219" s="25"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="23"/>
+      <c r="A220" s="25"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>

--- a/TNR_JDD/JDD.MP.LOT.xlsx
+++ b/TNR_JDD/JDD.MP.LOT.xlsx
@@ -346,10 +346,10 @@
     <t>PARA</t>
   </si>
   <si>
-    <t>VALEUR INTERNE</t>
-  </si>
-  <si>
-    <t>VALEUR</t>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>TEXTE IHM</t>
   </si>
   <si>
     <t>Ne pas regrouper</t>
@@ -371,7 +371,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -444,6 +444,11 @@
     <font>
       <b/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -545,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -615,13 +620,16 @@
     <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -6029,40 +6037,40 @@
       <c r="B1" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="30" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="32">
         <v>0.0</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="31" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="32">
         <v>1.0</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="31" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="32">
         <v>2.0</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="31" t="s">
         <v>82</v>
       </c>
     </row>
